--- a/[ML]_Project_EDAOutputs_Group33/FeatureSelection/Lasso_Ridge_Coefficients_OneHotEncoding_MinMaxScaler.xlsx
+++ b/[ML]_Project_EDAOutputs_Group33/FeatureSelection/Lasso_Ridge_Coefficients_OneHotEncoding_MinMaxScaler.xlsx
@@ -452,10 +452,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.237243998687786</v>
+        <v>6.232432576559113</v>
       </c>
       <c r="C2" t="n">
-        <v>3.944519605993584</v>
+        <v>3.944223893385057</v>
       </c>
     </row>
     <row r="3">
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.947861753139138</v>
+        <v>2.947817848598647</v>
       </c>
       <c r="C3" t="n">
-        <v>3.290362333835966</v>
+        <v>3.290358302950401</v>
       </c>
     </row>
     <row r="4">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.915920860152059</v>
+        <v>2.920520967228516</v>
       </c>
       <c r="C4" t="n">
-        <v>2.827986835469001</v>
+        <v>2.828112831439075</v>
       </c>
     </row>
     <row r="5">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.11630523750501</v>
+        <v>2.116190901073219</v>
       </c>
       <c r="C5" t="n">
-        <v>1.784078340932222</v>
+        <v>1.784050555207619</v>
       </c>
     </row>
     <row r="6">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.018792693604477</v>
+        <v>2.01886887245161</v>
       </c>
       <c r="C6" t="n">
-        <v>2.025537743602008</v>
+        <v>2.025546093556274</v>
       </c>
     </row>
     <row r="7">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.966833488202975</v>
+        <v>1.96672510039031</v>
       </c>
       <c r="C7" t="n">
-        <v>1.873289642013039</v>
+        <v>1.873283354962303</v>
       </c>
     </row>
     <row r="8">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.616631251862474</v>
+        <v>1.616508335694486</v>
       </c>
       <c r="C8" t="n">
-        <v>1.623379698122994</v>
+        <v>1.623359555895904</v>
       </c>
     </row>
     <row r="9">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.490238162658042</v>
+        <v>1.490289843841678</v>
       </c>
       <c r="C9" t="n">
-        <v>1.410297738671527</v>
+        <v>1.410315508551719</v>
       </c>
     </row>
     <row r="10">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.378898860867579</v>
+        <v>1.378925532392287</v>
       </c>
       <c r="C10" t="n">
-        <v>1.519949083435273</v>
+        <v>1.519947196611927</v>
       </c>
     </row>
     <row r="11">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.264392468312563</v>
+        <v>1.264438461429036</v>
       </c>
       <c r="C11" t="n">
-        <v>1.269110951406348</v>
+        <v>1.269128768331785</v>
       </c>
     </row>
     <row r="12">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.216530469821262</v>
+        <v>1.216486746194857</v>
       </c>
       <c r="C12" t="n">
-        <v>1.204801670856191</v>
+        <v>1.204840348201464</v>
       </c>
     </row>
     <row r="13">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.202994092629537</v>
+        <v>1.202893603572925</v>
       </c>
       <c r="C13" t="n">
-        <v>1.139145923375004</v>
+        <v>1.139148978293083</v>
       </c>
     </row>
     <row r="14">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.086723824983183</v>
+        <v>1.085811081135972</v>
       </c>
       <c r="C14" t="n">
-        <v>1.002200102582516</v>
+        <v>1.002175639990748</v>
       </c>
     </row>
     <row r="15">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8959492276086252</v>
+        <v>0.8959657415167857</v>
       </c>
       <c r="C15" t="n">
-        <v>1.168797162698733</v>
+        <v>1.168789433788177</v>
       </c>
     </row>
     <row r="16">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8330269566186081</v>
+        <v>0.8330211034452446</v>
       </c>
       <c r="C16" t="n">
-        <v>1.107922461104081</v>
+        <v>1.107922317462628</v>
       </c>
     </row>
     <row r="17">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8011538468945356</v>
+        <v>0.800657273760814</v>
       </c>
       <c r="C17" t="n">
-        <v>0.747715637829834</v>
+        <v>0.7476685107128196</v>
       </c>
     </row>
     <row r="18">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7888624619132606</v>
+        <v>0.7889369016613195</v>
       </c>
       <c r="C18" t="n">
-        <v>0.828129559234459</v>
+        <v>0.8280926813343313</v>
       </c>
     </row>
     <row r="19">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7245540852314745</v>
+        <v>0.7246203822921637</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9050752641221997</v>
+        <v>0.9050695475218902</v>
       </c>
     </row>
     <row r="20">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.6903168231436871</v>
+        <v>0.6902924915273156</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7140439136974794</v>
+        <v>0.7140534131098604</v>
       </c>
     </row>
     <row r="21">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6779344572050325</v>
+        <v>0.6782707016814576</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7669444212832841</v>
+        <v>0.7670179872650265</v>
       </c>
     </row>
     <row r="22">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6697283695462428</v>
+        <v>0.6697556566103464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7595978118345699</v>
+        <v>0.7596001004328077</v>
       </c>
     </row>
     <row r="23">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6632811964911028</v>
+        <v>0.6632953386705422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8078159206454804</v>
+        <v>0.8078021458271435</v>
       </c>
     </row>
     <row r="24">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.6279139990934463</v>
+        <v>0.6279626841054992</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7503465468233766</v>
+        <v>0.7503366886529341</v>
       </c>
     </row>
     <row r="25">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5848601781479608</v>
+        <v>0.5848699395130801</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6791908727170965</v>
+        <v>0.6791896194146434</v>
       </c>
     </row>
     <row r="26">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5747272448459881</v>
+        <v>0.5748096798484728</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7220381240373959</v>
+        <v>0.7220329159261081</v>
       </c>
     </row>
     <row r="27">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5566271649643416</v>
+        <v>0.55669458520745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6477055495909638</v>
+        <v>0.6477181286808591</v>
       </c>
     </row>
     <row r="28">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5540351669435796</v>
+        <v>0.5540522950689953</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5897006668470623</v>
+        <v>0.5897113634755886</v>
       </c>
     </row>
     <row r="29">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5453027304051326</v>
+        <v>0.5453324410605446</v>
       </c>
       <c r="C29" t="n">
-        <v>0.566282514431509</v>
+        <v>0.5662763526951408</v>
       </c>
     </row>
     <row r="30">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5266640922675296</v>
+        <v>0.5265892742202115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6658410858851789</v>
+        <v>0.665836094651478</v>
       </c>
     </row>
     <row r="31">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5095515500705617</v>
+        <v>0.509469619131626</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5281256647589243</v>
+        <v>0.5281173541374677</v>
       </c>
     </row>
     <row r="32">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.5007212459952446</v>
+        <v>0.5006846306735308</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5766203292830316</v>
+        <v>0.5766155143161787</v>
       </c>
     </row>
     <row r="33">
@@ -855,10 +855,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4376988037375606</v>
+        <v>0.4374468240200116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4609057088081622</v>
+        <v>0.4608953109709317</v>
       </c>
     </row>
     <row r="34">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4179923712284211</v>
+        <v>0.4179649545099112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4418255899696483</v>
+        <v>0.4418180087165429</v>
       </c>
     </row>
     <row r="35">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4059411530928495</v>
+        <v>0.4058816146914465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6955311376197999</v>
+        <v>0.6955422220248598</v>
       </c>
     </row>
     <row r="36">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.4019317097933838</v>
+        <v>0.4021189090795492</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5286259336952234</v>
+        <v>0.5286249146714245</v>
       </c>
     </row>
     <row r="37">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3995361090177438</v>
+        <v>0.3995185509954435</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4477999000538512</v>
+        <v>0.4477909855515774</v>
       </c>
     </row>
     <row r="38">
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3956555831167786</v>
+        <v>0.3957012531128437</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5798364615785833</v>
+        <v>0.579842357952727</v>
       </c>
     </row>
     <row r="39">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3839854588889219</v>
+        <v>0.384012874387775</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4120090700166387</v>
+        <v>0.4120057787000024</v>
       </c>
     </row>
     <row r="40">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3525075096025103</v>
+        <v>0.3525374302799978</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4728768188198791</v>
+        <v>0.4728762420745772</v>
       </c>
     </row>
     <row r="41">
@@ -959,10 +959,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3445815843951212</v>
+        <v>0.3446077275931184</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4535795267909251</v>
+        <v>0.4535846184277612</v>
       </c>
     </row>
     <row r="42">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3378821253098828</v>
+        <v>0.3378908277412589</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4371386656962417</v>
+        <v>0.437135764618741</v>
       </c>
     </row>
     <row r="43">
@@ -985,10 +985,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3124377962277086</v>
+        <v>0.3124314762318254</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4118041490705469</v>
+        <v>0.4118042215531975</v>
       </c>
     </row>
     <row r="44">
@@ -998,10 +998,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.310580858875195</v>
+        <v>0.3105402115076473</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4640026654892002</v>
+        <v>0.4640020803481754</v>
       </c>
     </row>
     <row r="45">
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3065360342228524</v>
+        <v>0.306522290141523</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3732692864955711</v>
+        <v>0.3732699712732168</v>
       </c>
     </row>
     <row r="46">
@@ -1024,10 +1024,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3023704375999156</v>
+        <v>0.3023026877159972</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4372573229082543</v>
+        <v>0.4372518734811996</v>
       </c>
     </row>
     <row r="47">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.299943237979121</v>
+        <v>0.2998875808756817</v>
       </c>
       <c r="C47" t="n">
-        <v>0.368070220927435</v>
+        <v>0.3680592897079749</v>
       </c>
     </row>
     <row r="48">
@@ -1050,10 +1050,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2992836147519183</v>
+        <v>0.2992559845306701</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3657777993709699</v>
+        <v>0.3657795524883529</v>
       </c>
     </row>
     <row r="49">
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2980641060910267</v>
+        <v>0.2980458570143176</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4529003954105126</v>
+        <v>0.4528998134231672</v>
       </c>
     </row>
     <row r="50">
@@ -1076,10 +1076,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2726991954767618</v>
+        <v>0.2727609153559937</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3670030816491365</v>
+        <v>0.3670148110441145</v>
       </c>
     </row>
     <row r="51">
@@ -1089,10 +1089,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2548738335202286</v>
+        <v>0.2548712588623631</v>
       </c>
       <c r="C51" t="n">
-        <v>0.350011852087789</v>
+        <v>0.350013172195188</v>
       </c>
     </row>
     <row r="52">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2525033997579323</v>
+        <v>0.2524436399447432</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4682205809139528</v>
+        <v>0.4682215284229606</v>
       </c>
     </row>
     <row r="53">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2481509995361409</v>
+        <v>0.2481449643215949</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3765810561952653</v>
+        <v>0.3765878165941705</v>
       </c>
     </row>
     <row r="54">
@@ -1128,10 +1128,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2453158691610521</v>
+        <v>0.2452295550836977</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3717502312460631</v>
+        <v>0.3717472873200656</v>
       </c>
     </row>
     <row r="55">
@@ -1141,10 +1141,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2449924046481683</v>
+        <v>0.2450295060514709</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2703881241314877</v>
+        <v>0.2703962456433568</v>
       </c>
     </row>
     <row r="56">
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2337441615152598</v>
+        <v>0.2336602288084564</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2008765649388753</v>
+        <v>0.2008691212693117</v>
       </c>
     </row>
     <row r="57">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2288651606622115</v>
+        <v>0.2271969652606918</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4080691636910815</v>
+        <v>0.4080692661914771</v>
       </c>
     </row>
     <row r="58">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2104521554416325</v>
+        <v>0.210419417340378</v>
       </c>
       <c r="C58" t="n">
-        <v>0.2664892821526135</v>
+        <v>0.2664876751766732</v>
       </c>
     </row>
     <row r="59">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2099169619461866</v>
+        <v>0.2099083127904809</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2711957148341389</v>
+        <v>0.2711957375306524</v>
       </c>
     </row>
     <row r="60">
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2078241854073904</v>
+        <v>0.2079450276543179</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3014756794786272</v>
+        <v>0.3014750811627742</v>
       </c>
     </row>
     <row r="61">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2046366574270674</v>
+        <v>0.2046525292938301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3369783238258137</v>
+        <v>0.3369773451032675</v>
       </c>
     </row>
     <row r="62">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2019329435213542</v>
+        <v>0.2019609474898967</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3472658713726864</v>
+        <v>0.3472597837243485</v>
       </c>
     </row>
     <row r="63">
@@ -1245,10 +1245,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1985927474998117</v>
+        <v>0.1985628664287614</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2483677544072021</v>
+        <v>0.2483697164439205</v>
       </c>
     </row>
     <row r="64">
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1983737483970989</v>
+        <v>0.1984301916447145</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3042986658310683</v>
+        <v>0.3043046067380597</v>
       </c>
     </row>
     <row r="65">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.197889332929547</v>
+        <v>0.1978348453200494</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170695561746318</v>
+        <v>0.1706866225036736</v>
       </c>
     </row>
     <row r="66">
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1941800162443208</v>
+        <v>0.1941254037902591</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2333314565498761</v>
+        <v>0.2333312571396444</v>
       </c>
     </row>
     <row r="67">
@@ -1297,10 +1297,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1920478425117594</v>
+        <v>0.1919828750844829</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2793707678678718</v>
+        <v>0.279364963727335</v>
       </c>
     </row>
     <row r="68">
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1849942932681636</v>
+        <v>0.1849570105679239</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2574034880863415</v>
+        <v>0.2574019011363289</v>
       </c>
     </row>
     <row r="69">
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1834881204478652</v>
+        <v>0.1835538317729593</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3344485411004599</v>
+        <v>0.3344463494976213</v>
       </c>
     </row>
     <row r="70">
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1814637553380753</v>
+        <v>0.1814678467508009</v>
       </c>
       <c r="C70" t="n">
-        <v>0.252391628506731</v>
+        <v>0.2523917636627893</v>
       </c>
     </row>
     <row r="71">
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.17878024187137</v>
+        <v>0.1787635687633516</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241645232902039</v>
+        <v>0.2416445806616455</v>
       </c>
     </row>
     <row r="72">
@@ -1362,10 +1362,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1684984587804867</v>
+        <v>0.1683529972045453</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3146566679101369</v>
+        <v>0.3146506526418701</v>
       </c>
     </row>
     <row r="73">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1636969139038877</v>
+        <v>0.1636961114790243</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4169097692520038</v>
+        <v>0.416906168295385</v>
       </c>
     </row>
     <row r="74">
@@ -1388,10 +1388,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1613189815770423</v>
+        <v>0.1612787893347007</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2566995378828184</v>
+        <v>0.2567034659812442</v>
       </c>
     </row>
     <row r="75">
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1609212916375543</v>
+        <v>0.1609343554071168</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1769825134841377</v>
+        <v>0.1769795539091957</v>
       </c>
     </row>
     <row r="76">
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.160684079060438</v>
+        <v>0.1607379756194827</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240399804851568</v>
+        <v>0.2403976666767738</v>
       </c>
     </row>
     <row r="77">
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1535168556594761</v>
+        <v>0.1534854566885005</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2792541274482812</v>
+        <v>0.2792555292526984</v>
       </c>
     </row>
     <row r="78">
@@ -1440,10 +1440,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.152477096618642</v>
+        <v>0.152445664122669</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1831557210122767</v>
+        <v>0.18316294430873</v>
       </c>
     </row>
     <row r="79">
@@ -1453,10 +1453,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1461861604961477</v>
+        <v>0.1462432930644348</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2784599592775764</v>
+        <v>0.2784622451770297</v>
       </c>
     </row>
     <row r="80">
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1430706621630438</v>
+        <v>0.1430841588032372</v>
       </c>
       <c r="C80" t="n">
-        <v>0.282907569942251</v>
+        <v>0.2829087927772063</v>
       </c>
     </row>
     <row r="81">
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1418724022969519</v>
+        <v>0.1418367201255729</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2717445021594946</v>
+        <v>0.271744026110174</v>
       </c>
     </row>
     <row r="82">
@@ -1492,10 +1492,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1417259234356614</v>
+        <v>0.1416904288397703</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1745712337867708</v>
+        <v>0.1745664671635206</v>
       </c>
     </row>
     <row r="83">
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1400169241485116</v>
+        <v>0.1400065320445745</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2856003322097642</v>
+        <v>0.2855996402965537</v>
       </c>
     </row>
     <row r="84">
@@ -1518,10 +1518,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1384225189275158</v>
+        <v>0.1384607986832898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2460629501688318</v>
+        <v>0.2460647430668778</v>
       </c>
     </row>
     <row r="85">
@@ -1531,10 +1531,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1369053538109393</v>
+        <v>0.1369728511895105</v>
       </c>
       <c r="C85" t="n">
-        <v>0.35202153711543</v>
+        <v>0.3520321779158153</v>
       </c>
     </row>
     <row r="86">
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1368293670522464</v>
+        <v>0.136828224493924</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3200100870874732</v>
+        <v>0.3200056416714539</v>
       </c>
     </row>
     <row r="87">
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1308830557430126</v>
+        <v>0.1308985296693471</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1989292321451603</v>
+        <v>0.1989415092522276</v>
       </c>
     </row>
     <row r="88">
@@ -1570,10 +1570,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1268927624596005</v>
+        <v>0.1269141357042217</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3278854629839955</v>
+        <v>0.3278878318591437</v>
       </c>
     </row>
     <row r="89">
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1267285015396412</v>
+        <v>0.1267797657217104</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1286714603200214</v>
+        <v>0.1286653746533258</v>
       </c>
     </row>
     <row r="90">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1256839384141459</v>
+        <v>0.1256787041974178</v>
       </c>
       <c r="C90" t="n">
-        <v>0.324596967924235</v>
+        <v>0.3245995175784867</v>
       </c>
     </row>
     <row r="91">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.12189444233351</v>
+        <v>0.1219470984583025</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2898597115091172</v>
+        <v>0.2898584464008779</v>
       </c>
     </row>
     <row r="92">
@@ -1622,10 +1622,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1207751816648373</v>
+        <v>0.1208323829778845</v>
       </c>
       <c r="C92" t="n">
-        <v>0.200827374426301</v>
+        <v>0.2008250717685074</v>
       </c>
     </row>
     <row r="93">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1174470552376107</v>
+        <v>0.1174324750548855</v>
       </c>
       <c r="C93" t="n">
-        <v>0.145534918270756</v>
+        <v>0.1455338793574359</v>
       </c>
     </row>
     <row r="94">
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.1159192286050978</v>
+        <v>0.1158422004647104</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1883234537381289</v>
+        <v>0.1883236613595743</v>
       </c>
     </row>
     <row r="95">
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.1152848680574225</v>
+        <v>0.1151998431788048</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2410241560523164</v>
+        <v>0.2410063768444517</v>
       </c>
     </row>
     <row r="96">
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1146401226506531</v>
+        <v>0.1146283310384859</v>
       </c>
       <c r="C96" t="n">
-        <v>0.287772448352905</v>
+        <v>0.2877619820049533</v>
       </c>
     </row>
     <row r="97">
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1138885488389323</v>
+        <v>0.1139733480187818</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2356127582628023</v>
+        <v>0.2356235854158459</v>
       </c>
     </row>
     <row r="98">
@@ -1700,10 +1700,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1132854665071425</v>
+        <v>0.113291288486593</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1407457297900764</v>
+        <v>0.1407483311453308</v>
       </c>
     </row>
     <row r="99">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.1126801536404805</v>
+        <v>0.1126626968889966</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1453956627567851</v>
+        <v>0.1454019272716194</v>
       </c>
     </row>
     <row r="100">
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.1123139521441292</v>
+        <v>0.1123168931328094</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1972484266526482</v>
+        <v>0.1972468424724559</v>
       </c>
     </row>
     <row r="101">
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1106414178162524</v>
+        <v>0.1106485260337414</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2653246308697487</v>
+        <v>0.2653263655306898</v>
       </c>
     </row>
     <row r="102">
@@ -1752,10 +1752,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1095549421742861</v>
+        <v>0.1094507370713408</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2678909176559214</v>
+        <v>0.2678911232823976</v>
       </c>
     </row>
     <row r="103">
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.1079698252018784</v>
+        <v>0.1079643654111544</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3022340263226883</v>
+        <v>0.3022403124231848</v>
       </c>
     </row>
     <row r="104">
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1069947781732291</v>
+        <v>0.1069923062523311</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2034891888310685</v>
+        <v>0.2034833965770941</v>
       </c>
     </row>
     <row r="105">
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.1046620718590229</v>
+        <v>0.1047029733364886</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2938313324448898</v>
+        <v>0.2938426611012476</v>
       </c>
     </row>
     <row r="106">
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1040195361032055</v>
+        <v>0.1040085774339386</v>
       </c>
       <c r="C106" t="n">
-        <v>0.317979677377607</v>
+        <v>0.31798270255217</v>
       </c>
     </row>
     <row r="107">
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.100219681169257</v>
+        <v>0.1001983668270601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1767109918945878</v>
+        <v>0.1767100635792041</v>
       </c>
     </row>
     <row r="108">
@@ -1830,10 +1830,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.09947359701624175</v>
+        <v>0.09951385900029962</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2280918443765002</v>
+        <v>0.2280925085541493</v>
       </c>
     </row>
     <row r="109">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0980909901551168</v>
+        <v>0.09812108236442016</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1335448531565539</v>
+        <v>0.1335435047132147</v>
       </c>
     </row>
     <row r="110">
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.09596371233774992</v>
+        <v>0.09596025373007473</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2136564546579839</v>
+        <v>0.2136590072498123</v>
       </c>
     </row>
     <row r="111">
@@ -1869,10 +1869,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0882832426548686</v>
+        <v>0.08829126549843686</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1352686593655609</v>
+        <v>0.1352681957054046</v>
       </c>
     </row>
     <row r="112">
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.08391239289461157</v>
+        <v>0.08390559530193112</v>
       </c>
       <c r="C112" t="n">
-        <v>0.19952654909591</v>
+        <v>0.1995340023196771</v>
       </c>
     </row>
     <row r="113">
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.07971726727700421</v>
+        <v>0.07968031938067265</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1372417825086306</v>
+        <v>0.1372304275002791</v>
       </c>
     </row>
     <row r="114">
@@ -1908,10 +1908,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.07841928159009566</v>
+        <v>0.07843515513279067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2638976797367943</v>
+        <v>0.2639060665702723</v>
       </c>
     </row>
     <row r="115">
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.07318121875286092</v>
+        <v>0.07314316881325582</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1681000597672286</v>
+        <v>0.1680960049206913</v>
       </c>
     </row>
     <row r="116">
@@ -1934,10 +1934,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.07294472495934029</v>
+        <v>0.0729414365082941</v>
       </c>
       <c r="C116" t="n">
-        <v>0.122240738134115</v>
+        <v>0.1222426549276857</v>
       </c>
     </row>
     <row r="117">
@@ -1947,10 +1947,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.069696874058777</v>
+        <v>0.06966905486336349</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2719887146426957</v>
+        <v>0.2719891239074046</v>
       </c>
     </row>
     <row r="118">
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.06814401359369557</v>
+        <v>0.06815127337055384</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2472756462365965</v>
+        <v>0.2472753483994474</v>
       </c>
     </row>
     <row r="119">
@@ -1973,10 +1973,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.06255489657045252</v>
+        <v>0.06255075268874959</v>
       </c>
       <c r="C119" t="n">
-        <v>0.2282715331023759</v>
+        <v>0.2282668487063947</v>
       </c>
     </row>
     <row r="120">
@@ -1986,10 +1986,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.04804938636871778</v>
+        <v>0.04804400357507727</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1099047434896875</v>
+        <v>0.1099139640985427</v>
       </c>
     </row>
     <row r="121">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.04672633118249146</v>
+        <v>0.04672540735536929</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1176442385928196</v>
+        <v>0.117645474363929</v>
       </c>
     </row>
     <row r="122">
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.04360743786241443</v>
+        <v>0.0436155811603134</v>
       </c>
       <c r="C122" t="n">
-        <v>0.12924115861365</v>
+        <v>0.1292395798153566</v>
       </c>
     </row>
     <row r="123">
@@ -2025,10 +2025,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.03821626562653064</v>
+        <v>0.03821653493629495</v>
       </c>
       <c r="C123" t="n">
-        <v>0.2036478806147038</v>
+        <v>0.2036600103451219</v>
       </c>
     </row>
     <row r="124">
@@ -2038,10 +2038,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.02724879323595149</v>
+        <v>0.02724583640286372</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1135734169880632</v>
+        <v>0.113572271080795</v>
       </c>
     </row>
   </sheetData>
